--- a/하루생각 글 Dummy.xlsx
+++ b/하루생각 글 Dummy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\ADayMind-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\ADayMind\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81527D95-1080-4134-A03B-F5F88488DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,12 +596,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -639,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -653,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -667,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -681,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -695,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -709,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -723,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -737,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -751,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -765,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -779,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -793,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -807,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -821,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -835,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>34</v>
@@ -849,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>36</v>
@@ -863,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>38</v>
@@ -877,7 +878,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>40</v>
@@ -891,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>42</v>
@@ -905,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
